--- a/biology/Botanique/Marronnage_(droit_d'usage)/Marronnage_(droit_d'usage).xlsx
+++ b/biology/Botanique/Marronnage_(droit_d'usage)/Marronnage_(droit_d'usage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marronnage_(droit_d%27usage)</t>
+          <t>Marronnage_(droit_d'usage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le marronnage est un droit d'usage forestier sous l'Ancien Régime permettant à certains paysans d'obtenir du bois destiné à certains travaux précis, notamment la construction de sa maison (charpente, menuiserie, structure des murs à pans de bois), de clôtures et la fabrication des outils agraires[1]. On dit aussi droit de marnage en Lorraine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le marronnage est un droit d'usage forestier sous l'Ancien Régime permettant à certains paysans d'obtenir du bois destiné à certains travaux précis, notamment la construction de sa maison (charpente, menuiserie, structure des murs à pans de bois), de clôtures et la fabrication des outils agraires. On dit aussi droit de marnage en Lorraine.
 Par exemple, les bénéficiaires du bois Bourgeois de Dabo ont droit à tout bois nécessaire à la construction de leur logis, notamment pour des bardeaux ("tuiles" en bois).
 </t>
         </is>
